--- a/final_project/gru_gbrbm_H_div_2 (drop 0.2)/type2/pd_results_W5_H100_B16.xlsx
+++ b/final_project/gru_gbrbm_H_div_2 (drop 0.2)/type2/pd_results_W5_H100_B16.xlsx
@@ -502,25 +502,23 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.5552238805970149</v>
-      </c>
-      <c r="B2" t="n">
-        <v>1</v>
-      </c>
+        <v>0.5535714285714286</v>
+      </c>
+      <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.006666666666666667</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5565476190476191</v>
+        <v>0.5535714285714286</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7140115163147792</v>
+        <v>0.7126436781609196</v>
       </c>
       <c r="G2" t="n">
-        <v>0.4791666666666667</v>
+        <v>0.4851190476190476</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -528,19 +526,19 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>0.09059418080595825</v>
+        <v>0.1163050917395631</v>
       </c>
       <c r="J2" t="n">
-        <v>1118.767385738115</v>
+        <v>1482.456263064176</v>
       </c>
       <c r="K2" t="n">
-        <v>1562694.775262715</v>
+        <v>2805560.999290795</v>
       </c>
       <c r="L2" t="n">
-        <v>1250.077907677244</v>
+        <v>1674.980895201732</v>
       </c>
       <c r="M2" t="n">
-        <v>0.7120139406266381</v>
+        <v>0.4829684789971126</v>
       </c>
     </row>
   </sheetData>
